--- a/员工归档/工作输出/杨晨/2017年春季学生报名册.xlsx
+++ b/员工归档/工作输出/杨晨/2017年春季学生报名册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="小学" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">思源中学!$A$3:$Q$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">小学!$A$3:$O$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1249,7 +1249,7 @@
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q214"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/员工归档/工作输出/杨晨/2017年春季学生报名册.xlsx
+++ b/员工归档/工作输出/杨晨/2017年春季学生报名册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="小学" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">思源中学!$A$3:$Q$120</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">小学!$A$3:$O$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">小学!$A$3:$M$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="241">
   <si>
     <t>小学学生报名册</t>
   </si>
@@ -85,9 +85,6 @@
     <t>实验小学</t>
   </si>
   <si>
-    <t>胡静</t>
-  </si>
-  <si>
     <t>杨晨</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>306班</t>
   </si>
   <si>
-    <t>方术英</t>
-  </si>
-  <si>
     <t>语文、数学一学期</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>201班</t>
   </si>
   <si>
-    <t>潘小云</t>
-  </si>
-  <si>
     <t>2017.2.15</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
   </si>
   <si>
     <t>602班</t>
-  </si>
-  <si>
-    <t>王利华</t>
   </si>
   <si>
     <t>数学，英语一学期</t>
@@ -1247,34 +1235,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="5" customWidth="1"/>
+    <col min="3" max="4" width="9.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="22" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="28"/>
+    <col min="8" max="8" width="11.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.25" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="22" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="26" customFormat="1" ht="24.95" customHeight="1">
+    <row r="1" spans="1:13" s="26" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1290,10 +1275,8 @@
       <c r="K1" s="30"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:15" s="26" customFormat="1" ht="24.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:13" s="26" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1307,10 +1290,8 @@
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" s="26" customFormat="1" ht="24.95" customHeight="1">
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1333,31 +1314,25 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="27" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" s="27" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1379,640 +1354,586 @@
       <c r="G4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="29" t="s">
-        <v>21</v>
+      <c r="H4" s="29">
+        <v>1240</v>
       </c>
       <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29">
         <v>1240</v>
       </c>
-      <c r="J4" s="29">
-        <v>0</v>
-      </c>
       <c r="K4" s="29">
-        <v>1240</v>
+        <v>2080</v>
       </c>
       <c r="L4" s="29">
-        <v>2080</v>
-      </c>
-      <c r="M4" s="29">
-        <f>L4-K4</f>
+        <f>K4-J4</f>
         <v>840</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="M4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="27" customFormat="1" ht="24.95" customHeight="1">
+    </row>
+    <row r="5" spans="1:13" s="27" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="D5" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="E5" s="29">
         <v>18672083107</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="29" t="s">
-        <v>28</v>
+      <c r="H5" s="29">
+        <v>1680</v>
       </c>
       <c r="I5" s="29">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29">
         <v>1680</v>
-      </c>
-      <c r="J5" s="29">
-        <v>0</v>
       </c>
       <c r="K5" s="29">
         <v>1680</v>
       </c>
       <c r="L5" s="29">
-        <v>1680</v>
-      </c>
-      <c r="M5" s="29">
-        <v>0</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="24.95" customHeight="1">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>15347014991</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="5">
+      <c r="H6" s="5">
         <v>2560</v>
       </c>
-      <c r="J6" s="29">
-        <v>0</v>
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2560</v>
       </c>
       <c r="K6" s="5">
         <v>2560</v>
       </c>
       <c r="L6" s="5">
-        <v>2560</v>
-      </c>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="27" customFormat="1" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="27" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="29">
         <v>13597780307</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="29" t="s">
-        <v>39</v>
+      <c r="H7" s="29">
+        <v>1280</v>
       </c>
       <c r="I7" s="29">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29">
         <v>1280</v>
-      </c>
-      <c r="J7" s="29">
-        <v>0</v>
       </c>
       <c r="K7" s="29">
         <v>1280</v>
       </c>
       <c r="L7" s="29">
-        <v>1280</v>
-      </c>
-      <c r="M7" s="29">
-        <v>0</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="24.95" customHeight="1">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5">
         <v>18672458214</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="5">
+        <v>1280</v>
+      </c>
       <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
         <v>1280</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
       </c>
       <c r="K8" s="29">
         <v>1280</v>
       </c>
-      <c r="L8" s="29">
-        <v>1280</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="24.95" customHeight="1">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5">
         <v>13789902322</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
+        <v>400</v>
+      </c>
+      <c r="J9" s="5">
         <v>400</v>
       </c>
       <c r="K9" s="5">
         <v>400</v>
       </c>
       <c r="L9" s="5">
-        <v>400</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="24.95" customHeight="1">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5">
         <v>15586628000</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="5">
+        <v>49</v>
+      </c>
+      <c r="H10" s="5">
+        <v>400</v>
+      </c>
+      <c r="J10" s="5">
         <v>400</v>
       </c>
       <c r="K10" s="5">
         <v>400</v>
       </c>
       <c r="L10" s="5">
-        <v>400</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="26" customFormat="1" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="26" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1">
         <v>18371858142</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="1">
+        <v>360</v>
+      </c>
       <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
         <v>360</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>360</v>
       </c>
       <c r="L11" s="1">
-        <v>360</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24.95" customHeight="1">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5">
         <v>13126219888</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="29" t="s">
-        <v>28</v>
+      <c r="H12" s="5">
+        <v>2560</v>
       </c>
       <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>2560</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
       </c>
       <c r="K12" s="5">
         <v>2560</v>
       </c>
       <c r="L12" s="5">
-        <v>2560</v>
-      </c>
-      <c r="M12" s="5">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24.95" customHeight="1">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="5">
         <v>13886759692</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>67</v>
+      <c r="H13" s="5">
+        <v>2080</v>
       </c>
       <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>2080</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
       </c>
       <c r="K13" s="5">
         <v>2080</v>
       </c>
       <c r="L13" s="5">
-        <v>2080</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="24.95" customHeight="1">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5">
         <v>17771754992</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="H14" s="5">
+        <v>400</v>
       </c>
       <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>400</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
       </c>
       <c r="K14" s="5">
         <v>400</v>
       </c>
       <c r="L14" s="5">
-        <v>400</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="24.95" customHeight="1">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="16">
         <v>13647186191</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3000</v>
       </c>
       <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>3000</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
       </c>
       <c r="K15" s="5">
         <v>3000</v>
       </c>
       <c r="L15" s="5">
-        <v>3000</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="24.95" customHeight="1">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16" s="16">
         <v>18671839233</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3000</v>
       </c>
       <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>3000</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
       </c>
       <c r="K16" s="5">
         <v>3000</v>
       </c>
       <c r="L16" s="5">
-        <v>3000</v>
-      </c>
-      <c r="M16" s="5">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="24.95" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1">
       <c r="A17" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="24.95" customHeight="1">
+      <c r="J17" s="5">
+        <f>SUM(J4:J16)</f>
+        <v>20240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1">
       <c r="A18" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="24.95" customHeight="1">
+    <row r="19" spans="1:10" ht="24.95" customHeight="1">
       <c r="A19" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="24.95" customHeight="1">
+    <row r="20" spans="1:10" ht="24.95" customHeight="1">
       <c r="A20" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="24.95" customHeight="1">
+    <row r="21" spans="1:10" ht="24.95" customHeight="1">
       <c r="A21" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1">
       <c r="A22" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:10" ht="24.95" customHeight="1">
       <c r="A23" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:10" ht="24.95" customHeight="1">
       <c r="A24" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="24.95" customHeight="1">
+    <row r="25" spans="1:10" ht="24.95" customHeight="1">
       <c r="A25" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="24.95" customHeight="1">
+    <row r="26" spans="1:10" ht="24.95" customHeight="1">
       <c r="A26" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="24.95" customHeight="1">
+    <row r="27" spans="1:10" ht="24.95" customHeight="1">
       <c r="A27" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="24.95" customHeight="1">
+    <row r="28" spans="1:10" ht="24.95" customHeight="1">
       <c r="A28" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="24.95" customHeight="1">
+    <row r="29" spans="1:10" ht="24.95" customHeight="1">
       <c r="A29" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="24.95" customHeight="1">
+    <row r="30" spans="1:10" ht="24.95" customHeight="1">
       <c r="A30" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="24.95" customHeight="1">
+    <row r="31" spans="1:10" ht="24.95" customHeight="1">
       <c r="A31" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="24.95" customHeight="1">
+    <row r="32" spans="1:10" ht="24.95" customHeight="1">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -2024,7 +1945,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2036,7 +1957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -2110,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -2148,25 +2069,25 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" s="12">
         <v>13197214658</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F4" s="12">
         <v>907</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I4" s="12">
         <v>1600</v>
@@ -2184,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2195,22 +2116,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3">
         <v>13227432286</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -2229,10 +2150,10 @@
         <v>1500</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2240,25 +2161,25 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5">
         <v>15027198977</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5">
         <v>907</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I6" s="5">
         <v>1500</v>
@@ -2276,10 +2197,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2287,25 +2208,25 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5">
         <v>18671697818</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" s="5">
         <v>907</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I7" s="5">
         <v>800</v>
@@ -2323,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2334,25 +2255,25 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3">
         <v>15572409393</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3">
         <v>904</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -2370,10 +2291,10 @@
         <v>1300</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2381,25 +2302,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D9" s="5">
         <v>15571817196</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" s="5">
         <v>904</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I9" s="5">
         <v>200</v>
@@ -2417,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2428,25 +2349,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D10" s="12">
         <v>15071884548</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="12">
         <v>907</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I10" s="12">
         <v>1600</v>
@@ -2464,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2475,25 +2396,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" s="12">
         <v>13477201816</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F11" s="12">
         <v>903</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I11" s="12">
         <v>1600</v>
@@ -2511,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2522,25 +2443,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="12">
         <v>13451029677</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F12" s="12">
         <v>904</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I12" s="12">
         <v>1600</v>
@@ -2558,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2569,25 +2490,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="D13" s="12">
         <v>18872145520</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F13" s="12">
         <v>904</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I13" s="12">
         <v>1600</v>
@@ -2605,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2616,25 +2537,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="13">
         <v>13593600004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F14" s="13">
         <v>816</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I14" s="12">
         <v>1600</v>
@@ -2652,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2663,25 +2584,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D15" s="14">
         <v>13635740522</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F15" s="14">
         <v>801</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I15" s="14">
         <v>1200</v>
@@ -2699,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2710,25 +2631,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="5">
         <v>13235451312</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F16" s="5">
         <v>718</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I16" s="5">
         <v>200</v>
@@ -2746,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2757,25 +2678,25 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D17" s="3">
         <v>15171986656</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3">
         <v>907</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -2791,10 +2712,10 @@
         <v>1300</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2802,25 +2723,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D18" s="16">
         <v>13403067289</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F18" s="16">
         <v>710</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I18" s="16">
         <v>1100</v>
@@ -2838,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2849,25 +2770,25 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D19" s="16">
         <v>13972406540</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="5">
         <v>907</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I19" s="5">
         <v>1500</v>
@@ -2885,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2896,25 +2817,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D20" s="16">
         <v>13886779543</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F20" s="16">
         <v>710</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I20" s="16">
         <v>640</v>
@@ -2932,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2943,25 +2864,25 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21" s="16">
         <v>15971770633</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F21" s="16">
         <v>710</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I21" s="16">
         <v>1100</v>
@@ -2979,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2990,25 +2911,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D22" s="16">
         <v>13410342478</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F22" s="16">
         <v>710</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I22" s="16">
         <v>1100</v>
@@ -3026,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3037,25 +2958,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D23" s="16">
         <v>15727188297</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F23" s="16">
         <v>718</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I23" s="16">
         <v>640</v>
@@ -3073,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3084,25 +3005,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D24" s="16">
         <v>18871819043</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F24" s="16">
         <v>708</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I24" s="16">
         <v>100</v>
@@ -3120,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3131,25 +3052,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D25" s="18">
         <v>17371813759</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F25" s="18">
         <v>716</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I25" s="18">
         <v>200</v>
@@ -3167,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3178,25 +3099,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D26" s="16">
         <v>13235443399</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F26" s="16">
         <v>801</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I26" s="16">
         <v>800</v>
@@ -3214,10 +3135,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3225,25 +3146,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D27" s="16">
         <v>15971682202</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F27" s="16">
         <v>710</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I27" s="16">
         <v>300</v>
@@ -3261,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3272,25 +3193,25 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D28" s="19">
         <v>13451021936</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F28" s="19">
         <v>708</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I28" s="19">
         <v>200</v>
@@ -3308,10 +3229,10 @@
         <v>440</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3319,25 +3240,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D29" s="16">
         <v>13517182569</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F29" s="16">
         <v>708</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I29" s="16">
         <v>640</v>
@@ -3355,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3366,25 +3287,25 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D30" s="16">
         <v>13477935543</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F30" s="16">
         <v>710</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I30" s="16">
         <v>1100</v>
@@ -3402,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3413,25 +3334,25 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D31" s="16">
         <v>15071840899</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F31" s="16">
         <v>710</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I31" s="16">
         <v>1100</v>
@@ -3449,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3460,22 +3381,22 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D32" s="14">
         <v>13477941575</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F32" s="15">
         <v>707</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="16">
@@ -3494,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3505,22 +3426,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D33" s="14">
         <v>13093268585</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F33" s="14">
         <v>907</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16">
@@ -3539,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3550,22 +3471,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D34" s="14">
         <v>13593625122</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F34" s="14">
         <v>907</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16">
@@ -3584,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3595,22 +3516,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D35" s="14">
         <v>15971707038</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F35" s="15">
         <v>716</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="16">
@@ -3629,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O35" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3640,25 +3561,25 @@
         <v>33</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D36" s="16">
         <v>13117135777</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F36" s="16">
         <v>710</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I36" s="16">
         <v>1100</v>
@@ -3676,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3687,25 +3608,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D37" s="16">
         <v>15972417888</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F37" s="5">
         <v>907</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I37" s="16">
         <v>1500</v>
@@ -3723,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3734,25 +3655,25 @@
         <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D38" s="16">
         <v>15062241386</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F38" s="5">
         <v>907</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I38" s="16">
         <v>1500</v>
@@ -3770,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3781,25 +3702,25 @@
         <v>36</v>
       </c>
       <c r="B39" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="16" t="s">
         <v>144</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="D39" s="16">
         <v>15172999663</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F39" s="16">
         <v>710</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I39" s="16">
         <v>640</v>
@@ -3817,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3828,25 +3749,25 @@
         <v>37</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D40" s="16">
         <v>13593609912</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F40" s="5">
         <v>907</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I40" s="16">
         <v>1500</v>
@@ -3864,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3875,25 +3796,25 @@
         <v>38</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D41" s="16">
         <v>15027228978</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F41" s="16">
         <v>710</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I41" s="16">
         <v>640</v>
@@ -3911,10 +3832,10 @@
         <v>0</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O41" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3922,25 +3843,25 @@
         <v>39</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D42" s="16">
         <v>13972413777</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F42" s="16">
         <v>716</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I42" s="16">
         <v>1100</v>
@@ -3958,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3969,25 +3890,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D43" s="16">
         <v>15172822175</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F43" s="5">
         <v>907</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I43" s="16">
         <v>1500</v>
@@ -4005,10 +3926,10 @@
         <v>0</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4016,25 +3937,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D44" s="16">
         <v>15572419988</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F44" s="5">
         <v>907</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I44" s="16">
         <v>1500</v>
@@ -4052,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4063,25 +3984,25 @@
         <v>42</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D45" s="16">
         <v>13217189062</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F45" s="16">
         <v>710</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I45" s="16">
         <v>1100</v>
@@ -4099,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O45" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4110,25 +4031,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D46" s="16">
         <v>18371814213</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F46" s="5">
         <v>907</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I46" s="16">
         <v>1500</v>
@@ -4146,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4157,25 +4078,25 @@
         <v>44</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D47" s="16">
         <v>13402726190</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F47" s="16">
         <v>710</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I47" s="16">
         <v>640</v>
@@ -4193,10 +4114,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O47" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4204,25 +4125,25 @@
         <v>45</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D48" s="16">
         <v>15272233968</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F48" s="5">
         <v>907</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I48" s="16">
         <v>1500</v>
@@ -4240,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4251,25 +4172,25 @@
         <v>46</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D49" s="16">
         <v>18071928163</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F49" s="5">
         <v>907</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I49" s="16">
         <v>1500</v>
@@ -4287,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4298,25 +4219,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D50" s="16">
         <v>15587507852</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F50" s="20">
         <v>710</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I50" s="20">
         <v>1100</v>
@@ -4334,10 +4255,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O50" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4345,25 +4266,25 @@
         <v>48</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D51" s="16">
         <v>13277561886</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F51" s="5">
         <v>907</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I51" s="16">
         <v>1500</v>
@@ -4381,10 +4302,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4392,25 +4313,25 @@
         <v>49</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D52" s="16">
         <v>13227420009</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F52" s="5">
         <v>907</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I52" s="16">
         <v>1500</v>
@@ -4428,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4439,25 +4360,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" s="16">
         <v>13403021312</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F53" s="5">
         <v>907</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I53" s="16">
         <v>1500</v>
@@ -4475,10 +4396,10 @@
         <v>0</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4486,25 +4407,25 @@
         <v>51</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" s="16">
         <v>15972424686</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F54" s="16">
         <v>710</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I54" s="16">
         <v>1100</v>
@@ -4522,10 +4443,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4533,25 +4454,25 @@
         <v>52</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" s="16">
         <v>18040652957</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F55" s="5">
         <v>907</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I55" s="16">
         <v>1500</v>
@@ -4569,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4580,25 +4501,25 @@
         <v>53</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="16">
         <v>18971898886</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F56" s="5">
         <v>907</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I56" s="16">
         <v>1500</v>
@@ -4616,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4627,25 +4548,25 @@
         <v>54</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D57" s="16">
         <v>17771753666</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F57" s="5">
         <v>907</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I57" s="16">
         <v>1500</v>
@@ -4663,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4674,25 +4595,25 @@
         <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D58" s="16">
         <v>13687194887</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F58" s="5">
         <v>907</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I58" s="16">
         <v>1500</v>
@@ -4710,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4721,25 +4642,25 @@
         <v>56</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D59" s="16">
         <v>13402742228</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F59" s="5">
         <v>907</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I59" s="16">
         <v>1500</v>
@@ -4757,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4768,25 +4689,25 @@
         <v>57</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D60" s="16">
         <v>13402723673</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F60" s="16">
         <v>710</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I60" s="16">
         <v>1100</v>
@@ -4804,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4815,25 +4736,25 @@
         <v>58</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D61" s="16">
         <v>15586603711</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F61" s="5">
         <v>907</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I61" s="16">
         <v>1500</v>
@@ -4851,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4862,25 +4783,25 @@
         <v>59</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D62" s="16">
         <v>13597788528</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F62" s="16">
         <v>706</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I62" s="16">
         <v>1100</v>
@@ -4898,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4909,25 +4830,25 @@
         <v>60</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D63" s="16">
         <v>15586659666</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F63" s="16">
         <v>710</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I63" s="16">
         <v>1100</v>
@@ -4945,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4956,25 +4877,25 @@
         <v>61</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D64" s="16">
         <v>15549178758</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F64" s="16">
         <v>707</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I64" s="16">
         <v>640</v>
@@ -4992,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O64" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5003,25 +4924,25 @@
         <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D65" s="16">
         <v>13235442556</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F65" s="5">
         <v>907</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I65" s="16">
         <v>1500</v>
@@ -5039,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5050,25 +4971,25 @@
         <v>63</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D66" s="16">
         <v>15172929494</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F66" s="5">
         <v>907</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I66" s="16">
         <v>1500</v>
@@ -5086,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5097,25 +5018,25 @@
         <v>64</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D67" s="16">
         <v>15717261855</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F67" s="16">
         <v>710</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I67" s="16">
         <v>640</v>
@@ -5133,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O67" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5144,25 +5065,25 @@
         <v>65</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D68" s="16">
         <v>13886764833</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F68" s="16">
         <v>710</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I68" s="16">
         <v>1100</v>
@@ -5180,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O68" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5191,25 +5112,25 @@
         <v>66</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D69" s="16">
         <v>13277598932</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F69" s="16">
         <v>710</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I69" s="16">
         <v>1100</v>
@@ -5227,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5238,25 +5159,25 @@
         <v>67</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D70" s="16">
         <v>18064253287</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F70" s="16">
         <v>710</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I70" s="16">
         <v>640</v>
@@ -5274,10 +5195,10 @@
         <v>0</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5285,25 +5206,25 @@
         <v>68</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D71" s="16">
         <v>13469731616</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F71" s="16">
         <v>801</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I71" s="16">
         <v>1200</v>
@@ -5321,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5332,25 +5253,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D72" s="16">
         <v>15172983466</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F72" s="16">
         <v>716</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I72" s="16">
         <v>1100</v>
@@ -5368,10 +5289,10 @@
         <v>0</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5379,25 +5300,25 @@
         <v>70</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D73" s="16">
         <v>13986846388</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F73" s="16">
         <v>716</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I73" s="16">
         <v>640</v>
@@ -5415,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5426,25 +5347,25 @@
         <v>71</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D74" s="16">
         <v>18871829506</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F74" s="16">
         <v>710</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I74" s="16">
         <v>1100</v>
@@ -5462,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -5473,25 +5394,25 @@
         <v>72</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D75" s="16">
         <v>18388254309</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F75" s="16">
         <v>710</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I75" s="16">
         <v>1100</v>
@@ -5509,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q75" s="24"/>
     </row>
@@ -5521,25 +5442,25 @@
         <v>73</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D76" s="16">
         <v>15027189204</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F76" s="16">
         <v>802</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I76" s="16">
         <v>1200</v>
@@ -5557,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O76" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q76" s="24"/>
     </row>
@@ -5569,25 +5490,25 @@
         <v>74</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D77" s="16">
         <v>15549114150</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F77" s="16">
         <v>710</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I77" s="16">
         <v>1100</v>
@@ -5605,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O77" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q77" s="24"/>
     </row>
@@ -5617,25 +5538,25 @@
         <v>75</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D78" s="16">
         <v>13402731389</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F78" s="5">
         <v>907</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I78" s="16">
         <v>1500</v>
@@ -5653,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q78" s="24"/>
     </row>
@@ -5665,25 +5586,25 @@
         <v>76</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D79" s="16">
         <v>13517130811</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F79" s="16">
         <v>708</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I79" s="16">
         <v>1100</v>
@@ -5701,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O79" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q79" s="24"/>
     </row>
@@ -5713,25 +5634,25 @@
         <v>77</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D80" s="16">
         <v>13635740669</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F80" s="5">
         <v>907</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I80" s="16">
         <v>1500</v>
@@ -5749,10 +5670,10 @@
         <v>0</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q80" s="24"/>
     </row>
@@ -5761,25 +5682,25 @@
         <v>78</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D81" s="16">
         <v>13872707192</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F81" s="16">
         <v>710</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I81" s="16">
         <v>1100</v>
@@ -5797,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q81" s="24"/>
     </row>
@@ -5809,23 +5730,23 @@
         <v>79</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F82" s="5">
         <v>907</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I82" s="16">
         <v>1500</v>
@@ -5843,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q82" s="24"/>
     </row>
@@ -5855,25 +5776,25 @@
         <v>80</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D83" s="16">
         <v>13277544088</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F83" s="5">
         <v>907</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I83" s="16">
         <v>1500</v>
@@ -5891,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q83" s="24"/>
     </row>
@@ -5903,25 +5824,25 @@
         <v>81</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D84" s="16">
         <v>15172880142</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F84" s="16">
         <v>703</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I84" s="16">
         <v>640</v>
@@ -5939,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O84" s="16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q84" s="24"/>
     </row>
@@ -5951,25 +5872,25 @@
         <v>82</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D85" s="16">
         <v>15587548460</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F85" s="16">
         <v>705</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I85" s="16">
         <v>640</v>
@@ -5987,10 +5908,10 @@
         <v>0</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O85" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q85" s="24"/>
     </row>
@@ -5999,25 +5920,25 @@
         <v>83</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D86" s="16">
         <v>13593609223</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F86" s="16">
         <v>705</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I86" s="16">
         <v>1100</v>
@@ -6035,10 +5956,10 @@
         <v>0</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q86" s="24"/>
     </row>
@@ -6047,25 +5968,25 @@
         <v>84</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D87" s="16">
         <v>13517130388</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F87" s="16">
         <v>710</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I87" s="16">
         <v>1100</v>
@@ -6083,10 +6004,10 @@
         <v>0</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O87" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q87" s="24"/>
     </row>
@@ -6095,25 +6016,25 @@
         <v>85</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D88" s="16">
         <v>18086213097</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F88" s="16">
         <v>710</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I88" s="16">
         <v>1100</v>
@@ -6131,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O88" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q88" s="24"/>
     </row>
@@ -6143,25 +6064,25 @@
         <v>86</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D89" s="16">
         <v>18571222227</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F89" s="5">
         <v>907</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I89" s="16">
         <v>1500</v>
@@ -6179,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q89" s="25"/>
     </row>
@@ -6191,25 +6112,25 @@
         <v>87</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D90" s="16">
         <v>13972418969</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F90" s="16">
         <v>708</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I90" s="16">
         <v>1280</v>
@@ -6227,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q90" s="24"/>
     </row>
@@ -6239,22 +6160,22 @@
         <v>88</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D91" s="16">
         <v>13972405176</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F91" s="16">
         <v>805</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H91" s="16"/>
       <c r="I91" s="16">
@@ -6273,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O91" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q91" s="24"/>
     </row>
@@ -6285,22 +6206,22 @@
         <v>89</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D92" s="22">
         <v>13477283419</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F92" s="22">
         <v>702</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H92" s="22"/>
       <c r="I92" s="22">
@@ -6319,10 +6240,10 @@
         <v>300</v>
       </c>
       <c r="N92" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O92" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q92" s="24"/>
     </row>
@@ -6331,25 +6252,25 @@
         <v>90</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D93" s="16">
         <v>18671893755</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F93" s="16">
         <v>716</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I93" s="16">
         <v>640</v>
@@ -6367,10 +6288,10 @@
         <v>0</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O93" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q93" s="24"/>
     </row>
@@ -6379,22 +6300,22 @@
         <v>91</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D94" s="16">
         <v>13872707906</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F94" s="16">
         <v>714</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H94" s="16"/>
       <c r="I94" s="16">
@@ -6413,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O94" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q94" s="24"/>
     </row>
@@ -6425,25 +6346,25 @@
         <v>92</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D95" s="16">
         <v>13403030319</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F95" s="16">
         <v>716</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I95" s="16">
         <v>640</v>
@@ -6461,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q95" s="24"/>
     </row>
@@ -6473,25 +6394,25 @@
         <v>93</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D96" s="16">
         <v>13593634278</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F96" s="16">
         <v>816</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I96" s="16">
         <v>1200</v>
@@ -6509,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O96" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q96" s="24"/>
     </row>
@@ -6521,25 +6442,25 @@
         <v>94</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D97" s="16">
         <v>18162983001</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F97" s="16">
         <v>816</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I97" s="16">
         <v>1200</v>
@@ -6557,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O97" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q97" s="24"/>
     </row>
@@ -6569,25 +6490,25 @@
         <v>95</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D98" s="16">
         <v>13997770825</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F98" s="5">
         <v>907</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I98" s="16">
         <v>1500</v>
@@ -6605,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q98" s="24"/>
     </row>
@@ -6617,25 +6538,25 @@
         <v>96</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D99" s="16">
         <v>15586658579</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F99" s="16">
         <v>716</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I99" s="16">
         <v>1100</v>
@@ -6653,10 +6574,10 @@
         <v>0</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q99" s="24"/>
     </row>
@@ -6665,25 +6586,25 @@
         <v>97</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D100" s="16">
         <v>13886789891</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F100" s="16">
         <v>716</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I100" s="16">
         <v>1100</v>
@@ -6701,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O100" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q100" s="24"/>
     </row>
@@ -6713,25 +6634,25 @@
         <v>98</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D101" s="16">
         <v>13257262826</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F101" s="5">
         <v>907</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I101" s="16">
         <v>1500</v>
@@ -6749,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O101" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q101" s="24"/>
     </row>
@@ -6761,25 +6682,25 @@
         <v>99</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D102" s="16">
         <v>18972407757</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F102" s="5">
         <v>907</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I102" s="16">
         <v>1500</v>
@@ -6797,10 +6718,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q102" s="24"/>
     </row>
@@ -6809,25 +6730,25 @@
         <v>100</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D103" s="16">
         <v>18972428079</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F103" s="16">
         <v>716</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I103" s="16">
         <v>1280</v>
@@ -6845,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="N103" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q103" s="24"/>
     </row>
@@ -6857,18 +6778,18 @@
         <v>101</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F104" s="16"/>
       <c r="G104" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="16">
@@ -6887,10 +6808,10 @@
         <v>0</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O104" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q104" s="24"/>
     </row>
@@ -6899,18 +6820,18 @@
         <v>102</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D105" s="16"/>
       <c r="E105" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F105" s="16"/>
       <c r="G105" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="16">
@@ -6929,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O105" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q105" s="24"/>
     </row>
@@ -6941,18 +6862,18 @@
         <v>103</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F106" s="16"/>
       <c r="G106" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="16">
@@ -6971,10 +6892,10 @@
         <v>0</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O106" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q106" s="24"/>
     </row>
@@ -6983,25 +6904,25 @@
         <v>104</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D107" s="16">
         <v>13329824486</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F107" s="16">
         <v>801</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I107" s="16">
         <v>1200</v>
@@ -7019,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O107" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q107" s="24"/>
     </row>
@@ -7031,25 +6952,25 @@
         <v>105</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D108" s="19">
         <v>15172992126</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F108" s="19">
         <v>801</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I108" s="19">
         <v>500</v>
@@ -7067,10 +6988,10 @@
         <v>700</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q108" s="24"/>
     </row>
@@ -7079,25 +7000,25 @@
         <v>106</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D109" s="19">
         <v>13635752876</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F109" s="19">
         <v>708</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H109" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I109" s="19">
         <v>500</v>
@@ -7115,10 +7036,10 @@
         <v>780</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q109" s="24"/>
     </row>
@@ -7127,23 +7048,23 @@
         <v>107</v>
       </c>
       <c r="B110" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>230</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F110" s="5">
         <v>907</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I110" s="16">
         <v>1500</v>
@@ -7161,10 +7082,10 @@
         <v>0</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q110" s="24"/>
     </row>
@@ -7173,22 +7094,22 @@
         <v>108</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D111" s="16">
         <v>13872708346</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F111" s="16">
         <v>702</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H111" s="16"/>
       <c r="I111" s="16">
@@ -7207,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O111" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q111" s="24"/>
     </row>
@@ -7219,25 +7140,25 @@
         <v>109</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D112" s="16">
         <v>13593626818</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F112" s="16">
         <v>705</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I112" s="16">
         <v>640</v>
@@ -7255,10 +7176,10 @@
         <v>0</v>
       </c>
       <c r="N112" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O112" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q112" s="24"/>
     </row>
@@ -7267,23 +7188,23 @@
         <v>110</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F113" s="16">
         <v>716</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I113" s="16">
         <v>640</v>
@@ -7301,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O113" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Q113" s="24"/>
     </row>
@@ -9097,7 +9018,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -9178,19 +9099,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3">
         <v>13117139564</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
@@ -9207,10 +9128,10 @@
         <v>900</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -9218,19 +9139,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D5" s="3">
         <v>13117139564</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3">
@@ -9247,10 +9168,10 @@
         <v>900</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -9258,19 +9179,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D6" s="5">
         <v>15997752016</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
@@ -9289,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
